--- a/Tickets/Normal Tickets/Ticket 39066 - SOH - Kits/Testing/Test Plan.xlsx
+++ b/Tickets/Normal Tickets/Ticket 39066 - SOH - Kits/Testing/Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_v2\WIP\Tickets\Normal Tickets\Ticket 39066 - SOH - Kits\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B09FAE-031A-4410-BB01-EC2EEA9A8733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9126E3-5820-4E77-B8AB-9499E582F884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30960" yWindow="1290" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,38 +299,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -443,6 +443,50 @@
         <a:xfrm>
           <a:off x="95250" y="7048500"/>
           <a:ext cx="9993120" cy="7821116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2773479</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>58017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{208BB517-0259-28A9-54A4-1705C350F170}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="15144750"/>
+          <a:ext cx="12212754" cy="6211167"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -823,126 +867,119 @@
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="23"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="23"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>1</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>2</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>3</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
@@ -952,6 +989,13 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -966,7 +1010,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
@@ -982,12 +1026,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -995,46 +1039,46 @@
         <v>15</v>
       </c>
       <c r="B2" s="27"/>
-      <c r="C2" s="17">
+      <c r="C2" s="22">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="27"/>
-      <c r="C3" s="17" t="str">
+      <c r="C3" s="22" t="str">
         <f>'Test Cases'!B2</f>
         <v>unit testing</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="27"/>
-      <c r="C4" s="17" t="str">
+      <c r="C4" s="22" t="str">
         <f>'Test Cases'!D2</f>
         <v>1) ssms
 2) syspro access</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
@@ -1046,14 +1090,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28">
@@ -1074,42 +1118,37 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
@@ -1117,6 +1156,11 @@
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A7:B7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1128,14 +1172,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1370,12 +1412,14 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1383,12 +1427,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1413,9 +1454,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
